--- a/Dokumentation/Iteration v22/Iteration 7.xlsx
+++ b/Dokumentation/Iteration v22/Iteration 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Analys av föregående iteration</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Iterationsplan 7</t>
+  </si>
+  <si>
+    <t>Klar</t>
+  </si>
+  <si>
+    <t>Inga nya</t>
+  </si>
+  <si>
+    <t>Min totala tid i projektet</t>
   </si>
 </sst>
 </file>
@@ -526,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,13 +915,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4">
         <v>4</v>
       </c>
       <c r="E32" s="4">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +932,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
       <c r="E33" s="4">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,12 +947,14 @@
         <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -953,12 +964,14 @@
         <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -966,12 +979,14 @@
         <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -979,12 +994,14 @@
         <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4">
         <v>2</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -992,12 +1009,14 @@
         <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1005,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1018,12 +1037,14 @@
         <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1037,7 +1058,7 @@
       </c>
       <c r="E41" s="4">
         <f>SUM(E31:E40)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,7 +1074,7 @@
         <v>197.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -1062,6 +1083,18 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4">
         <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <f>SUM(E41:E42)</f>
+        <v>222.5</v>
       </c>
     </row>
   </sheetData>
